--- a/station_out_config/Border.xlsx
+++ b/station_out_config/Border.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,30 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>standoff</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ab</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pab</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/station_out_config/Border.xlsx
+++ b/station_out_config/Border.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,13 +441,19 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>point</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>border_type</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
         <is>
           <t>standoff</t>
         </is>
@@ -455,7 +461,8 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
         <is>
           <t>ab</t>
         </is>
@@ -463,7 +470,8 @@
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
         <is>
           <t>pab</t>
         </is>
